--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2641087.509285171</v>
+        <v>-2643992.381432325</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>320.9596570282553</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>338.8179590817902</v>
       </c>
     </row>
     <row r="3">
@@ -862,16 +862,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>139.8939792152983</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>266.6210949690525</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>216.3273452660812</v>
       </c>
       <c r="X5" t="n">
-        <v>174.5986077078408</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>233.4543067672734</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>65.51651982872626</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>92.1041391570548</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>143.1396184440654</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>160.4434316818335</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>99.4748484376444</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.06560892428168</v>
+        <v>20.88994825141629</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740351</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>116.4636264596498</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C25" t="n">
         <v>142.9621736065881</v>
@@ -2482,19 +2482,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E25" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F25" t="n">
-        <v>121.1364005308926</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G25" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H25" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541834</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S25" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T25" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V25" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W25" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X25" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y25" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
         <v>142.9621736065881</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652579</v>
+        <v>56.9811888265259</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
         <v>193.1208028352485</v>
@@ -2770,16 +2770,16 @@
         <v>261.8998268972046</v>
       </c>
       <c r="V28" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808158</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972055</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="32">
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,7 +3202,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
         <v>56.98118882652579</v>
@@ -3232,22 +3232,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3478,19 +3478,19 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972048</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>378.1446555862789</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="C2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="D2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1528.349585887292</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1154.883827626212</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>764.7444956504007</v>
+        <v>594.0087978893966</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,13 +4410,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4492,31 +4492,31 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782191</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="U4" t="n">
         <v>53.94298182036445</v>
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.94664591678</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988822</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2189.908715988822</v>
+        <v>1993.668658535239</v>
       </c>
       <c r="X5" t="n">
-        <v>2013.546485980902</v>
+        <v>1620.202900274159</v>
       </c>
       <c r="Y5" t="n">
-        <v>2013.546485980902</v>
+        <v>1620.202900274159</v>
       </c>
     </row>
     <row r="6">
@@ -4647,7 +4647,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
         <v>670.8219208598711</v>
@@ -4753,22 +4753,22 @@
         <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286581</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>235.5914466506042</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V7" t="n">
-        <v>235.5914466506042</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="W7" t="n">
-        <v>235.5914466506042</v>
+        <v>120.1212846776637</v>
       </c>
       <c r="X7" t="n">
-        <v>235.5914466506042</v>
+        <v>120.1212846776637</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1301.680602758765</v>
+        <v>1059.666235870466</v>
       </c>
       <c r="C8" t="n">
-        <v>1301.680602758765</v>
+        <v>690.7037189300547</v>
       </c>
       <c r="D8" t="n">
-        <v>1301.680602758765</v>
+        <v>690.7037189300547</v>
       </c>
       <c r="E8" t="n">
-        <v>915.8923501605202</v>
+        <v>597.6692349330297</v>
       </c>
       <c r="F8" t="n">
-        <v>504.9064453709126</v>
+        <v>186.6833301434222</v>
       </c>
       <c r="G8" t="n">
-        <v>491.8590676477442</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="H8" t="n">
         <v>173.6359524202537</v>
@@ -4811,7 +4811,7 @@
         <v>297.0690422295933</v>
       </c>
       <c r="M8" t="n">
-        <v>928.786853212905</v>
+        <v>848.1892110771031</v>
       </c>
       <c r="N8" t="n">
         <v>1475.49687913695</v>
@@ -4841,13 +4841,13 @@
         <v>2209.87116617148</v>
       </c>
       <c r="W8" t="n">
-        <v>2065.285692995656</v>
+        <v>2209.87116617148</v>
       </c>
       <c r="X8" t="n">
-        <v>1691.819934734576</v>
+        <v>1836.4054079104</v>
       </c>
       <c r="Y8" t="n">
-        <v>1301.680602758765</v>
+        <v>1446.266075934588</v>
       </c>
     </row>
     <row r="9">
@@ -4887,7 +4887,7 @@
         <v>121.5508014837215</v>
       </c>
       <c r="L9" t="n">
-        <v>585.1290695857516</v>
+        <v>258.7803994994155</v>
       </c>
       <c r="M9" t="n">
         <v>764.6264059403564</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>366.1236936385926</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>953.3980183931997</v>
       </c>
       <c r="S10" t="n">
-        <v>846.4373785321145</v>
+        <v>745.957733645605</v>
       </c>
       <c r="T10" t="n">
-        <v>620.8081818444795</v>
+        <v>745.957733645605</v>
       </c>
       <c r="U10" t="n">
-        <v>620.8081818444795</v>
+        <v>745.957733645605</v>
       </c>
       <c r="V10" t="n">
-        <v>366.1236936385926</v>
+        <v>491.2732454397182</v>
       </c>
       <c r="W10" t="n">
-        <v>366.1236936385926</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X10" t="n">
-        <v>366.1236936385926</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y10" t="n">
-        <v>366.1236936385926</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="11">
@@ -5030,37 +5030,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5124,10 +5124,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5258,46 +5258,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5364,7 +5364,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N15" t="n">
         <v>1307.627092998424</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5601,7 +5601,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N18" t="n">
         <v>1307.627092998424</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5741,34 +5741,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150031</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942664</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345469</v>
       </c>
       <c r="H25" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K25" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M25" t="n">
         <v>1344.317444979286</v>
@@ -6169,28 +6169,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R25" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S25" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T25" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W25" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y25" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311319</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6403,31 +6403,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="29">
@@ -6598,19 +6598,19 @@
         <v>926.9575315319323</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
         <v>411.2214559580115</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6634,25 +6634,25 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R31" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594055</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6862,7 +6862,7 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,10 +6880,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6926,10 +6926,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -7020,7 +7020,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
         <v>680.0291294438176</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7126,19 +7126,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7327,10 +7327,10 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
@@ -7363,13 +7363,13 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
         <v>1280.338681582389</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7497,7 +7497,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7555,7 +7555,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7582,10 +7582,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7728,10 +7728,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>184.7035232280589</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7837,16 +7837,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8295,10 +8295,10 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8459,10 +8459,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>368.1017737596992</v>
       </c>
       <c r="N8" t="n">
-        <v>355.9351646788508</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8535,10 +8535,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>329.6451212993294</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>329.6451212993295</v>
       </c>
       <c r="N9" t="n">
         <v>473.6238973478236</v>
@@ -22547,13 +22547,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>44.31323474275223</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>269.77215963982</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22562,7 +22562,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>47.41997957426338</v>
       </c>
     </row>
     <row r="3">
@@ -22702,31 +22702,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,25 +22750,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>85.14112624278596</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>19.6607792729252</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>96.65735796294148</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409393068</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>43.72409101823371</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>63.36835372228748</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1182678.619127712</v>
+        <v>1182678.619127711</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26399,7 +26399,7 @@
         <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26436,28 +26436,28 @@
         <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
+        <v>13668.39582977621</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13668.39582977621</v>
+      </c>
+      <c r="K4" t="n">
         <v>13668.39582977622</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>13668.39582977622</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13668.3958297762</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13668.39582977621</v>
       </c>
       <c r="M4" t="n">
         <v>13668.39582977622</v>
       </c>
       <c r="N4" t="n">
-        <v>13668.39582977621</v>
+        <v>13668.39582977622</v>
       </c>
       <c r="O4" t="n">
         <v>13668.39582977621</v>
       </c>
       <c r="P4" t="n">
-        <v>13668.39582977622</v>
+        <v>13668.39582977621</v>
       </c>
     </row>
     <row r="5">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-776747.2438691662</v>
+        <v>-777211.5406611908</v>
       </c>
       <c r="C6" t="n">
         <v>-292781.4935264428</v>
@@ -26528,22 +26528,22 @@
         <v>-448585.2996202377</v>
       </c>
       <c r="E6" t="n">
-        <v>-877852.7577713962</v>
+        <v>-877887.495696832</v>
       </c>
       <c r="F6" t="n">
-        <v>-106800.0663905899</v>
+        <v>-106834.8043160255</v>
       </c>
       <c r="G6" t="n">
-        <v>-106800.0663905899</v>
+        <v>-106834.8043160255</v>
       </c>
       <c r="H6" t="n">
-        <v>-106800.0663905899</v>
+        <v>-106834.8043160255</v>
       </c>
       <c r="I6" t="n">
         <v>-136260.2296773234</v>
       </c>
       <c r="J6" t="n">
-        <v>-293255.7308762846</v>
+        <v>-293255.7308762845</v>
       </c>
       <c r="K6" t="n">
         <v>-116832.5116836916</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="J2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="K2" t="n">
         <v>24.28464749203976</v>
       </c>
-      <c r="J2" t="n">
-        <v>24.28464749203976</v>
-      </c>
-      <c r="K2" t="n">
-        <v>24.28464749203969</v>
-      </c>
       <c r="L2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="M2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>84.91088198086294</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>189.8656403736495</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>132.9136234513319</v>
       </c>
       <c r="X5" t="n">
-        <v>195.1324929706282</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27825,22 +27825,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>52.82756747470432</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>153.0681335233685</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>289.826230915207</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>206.1013502733476</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>6.803389416794346</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>29.69833323014691</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
@@ -28071,7 +28071,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31844,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>233.9389431948335</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32084,31 +32084,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622665</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32321,31 +32321,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33740,10 +33740,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -34217,10 +34217,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34448,13 +34448,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>229.6463482471742</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
         <v>297.223041434342</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35179,10 +35179,10 @@
         <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>556.6870392399089</v>
       </c>
       <c r="N8" t="n">
-        <v>552.2323494182269</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35255,10 +35255,10 @@
         <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>468.2608768707375</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>510.9555620615566</v>
       </c>
       <c r="N9" t="n">
         <v>674.2872727545556</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>91.80490927281522</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,22 +35732,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,22 +35969,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36522,19 +36522,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M25" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N25" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O25" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P25" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q25" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36753,19 +36753,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37865,10 +37865,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>91.80490927281522</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
